--- a/Doc/wiscam_restfull_api.xlsx
+++ b/Doc/wiscam_restfull_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14325" windowHeight="10290" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Video API" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>Video API Change Params</t>
   </si>
@@ -240,10 +240,10 @@
     <t>sta/sta_gateway</t>
   </si>
   <si>
-    <t>https://IPADDR/wiscam.api/v1/wifi/lists</t>
-  </si>
-  <si>
-    <t>https://IPADDR/wiscam.api/v1/wifi/lists/ap</t>
+    <t>http://IPADDR/wiscam.api/v1/wifi/lists</t>
+  </si>
+  <si>
+    <t>http://IPADDR/wiscam.api/v1/wifi/lists/ap</t>
   </si>
   <si>
     <t>{"wifistatus":[</t>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>audio sample rate</t>
-  </si>
-  <si>
-    <t>https://IPADDR/wiscam.api/v1/wifi/scanning</t>
   </si>
   <si>
     <t>http://IPADDR/wiscam.api/v1/wifi/scanning</t>
@@ -386,10 +383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -454,81 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,9 +473,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,9 +554,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,6 +611,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,19 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,13 +725,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,115 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,37 +917,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,7 +941,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,15 +992,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,145 +1018,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2085,8 +2082,8 @@
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2874,7 +2871,7 @@
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:4">
@@ -2887,17 +2884,17 @@
     </row>
     <row r="79" ht="14.25" spans="1:4">
       <c r="A79" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="18"/>
       <c r="D79" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:4">
       <c r="A80" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="37"/>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:4">
       <c r="A81" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="37"/>
@@ -2913,7 +2910,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:4">
       <c r="A82" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="37"/>
@@ -2921,7 +2918,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:4">
       <c r="A83" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
@@ -3002,12 +2999,12 @@
     <hyperlink ref="D10" r:id="rId1" display="http://IPADDR/wiscam.api/v1/wifi" tooltip="http://IPADDR/wiscam.api/v1/wifi"/>
     <hyperlink ref="D14" r:id="rId2" display="http://IPADDR/wiscam.api/v1/wifi/modify?ap_ssid=id&amp;ap_key=12345678" tooltip="http://IPADDR/wiscam.api/v1/wifi/modify?ap_ssid=id&amp;ap_key=12345678"/>
     <hyperlink ref="D59" r:id="rId3" display="http://IPADDR/wiscam.api/v1/wifi/lists/sta" tooltip="http://IPADDR/wiscam.api/v1/wifi/lists/sta"/>
-    <hyperlink ref="D73" r:id="rId4" display="https://IPADDR/wiscam.api/v1/wifi/scanning" tooltip="https://IPADDR/wiscam.api/v1/wifi/scanning"/>
-    <hyperlink ref="D49" r:id="rId5" display="https://IPADDR/wiscam.api/v1/wifi/lists/ap" tooltip="https://IPADDR/wiscam.api/v1/wifi/lists/ap"/>
-    <hyperlink ref="D45" r:id="rId6" display="https://IPADDR/wiscam.api/v1/wifi/lists" tooltip="https://IPADDR/wiscam.api/v1/wifi/lists"/>
-    <hyperlink ref="D77" r:id="rId7" display="http://IPADDR/wiscam.api/v1/wifi/scanning" tooltip="http://IPADDR/wiscam.api/v1/wifi/scanning"/>
-    <hyperlink ref="D21" r:id="rId8" display="http://IPADDR/wiscam.api/v1/wifi/restart" tooltip="http://IPADDR/wiscam.api/v1/wifi/restart"/>
-    <hyperlink ref="D25" r:id="rId8" display="http://IPADDR/wiscam.api/v1/wifi/restart" tooltip="http://IPADDR/wiscam.api/v1/wifi/restart"/>
+    <hyperlink ref="D73" r:id="rId4" display="http://IPADDR/wiscam.api/v1/wifi/scanning" tooltip="http://IPADDR/wiscam.api/v1/wifi/scanning"/>
+    <hyperlink ref="D49" r:id="rId5" display="http://IPADDR/wiscam.api/v1/wifi/lists/ap" tooltip="http://IPADDR/wiscam.api/v1/wifi/lists/ap"/>
+    <hyperlink ref="D45" r:id="rId6" display="http://IPADDR/wiscam.api/v1/wifi/lists" tooltip="http://IPADDR/wiscam.api/v1/wifi/lists"/>
+    <hyperlink ref="D77" r:id="rId4" display="http://IPADDR/wiscam.api/v1/wifi/scanning" tooltip="http://IPADDR/wiscam.api/v1/wifi/scanning"/>
+    <hyperlink ref="D21" r:id="rId7" display="http://IPADDR/wiscam.api/v1/wifi/restart" tooltip="http://IPADDR/wiscam.api/v1/wifi/restart"/>
+    <hyperlink ref="D25" r:id="rId7" display="http://IPADDR/wiscam.api/v1/wifi/restart" tooltip="http://IPADDR/wiscam.api/v1/wifi/restart"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3019,8 +3016,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3033,7 +3030,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3058,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="15"/>
@@ -3068,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="16"/>
@@ -3078,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="16"/>
@@ -3100,7 +3097,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="96" customHeight="1" spans="1:4">
@@ -3148,7 +3145,7 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -3172,7 +3169,7 @@
     <row r="15" ht="35" customHeight="1"/>
     <row r="16" ht="25.5" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3197,7 +3194,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
@@ -3205,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3215,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3225,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3247,7 +3244,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="96" customHeight="1" spans="1:4">
@@ -3295,7 +3292,7 @@
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
@@ -3318,7 +3315,7 @@
     </row>
     <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="18"/>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:4">
       <c r="A31" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="18"/>
@@ -3334,7 +3331,7 @@
     </row>
     <row r="32" ht="14.25" spans="1:4">
       <c r="A32" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="18"/>
@@ -3357,7 +3354,7 @@
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
@@ -3370,12 +3367,12 @@
     </row>
     <row r="36" ht="14.25" spans="1:4">
       <c r="A36" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="18"/>
       <c r="D36" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3424,7 +3421,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
@@ -3437,7 +3434,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3480,7 +3477,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="85" customHeight="1" spans="1:4">
@@ -3528,7 +3525,7 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -3541,12 +3538,12 @@
     </row>
     <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="18"/>
       <c r="D11" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
